--- a/Grid_visualization.xlsx
+++ b/Grid_visualization.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\Projects\MineSweeperSolver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Projects\minesweepersolver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D64E4F6-D02F-4ECD-A865-6B1B2B0BFA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC04296-9AB3-4F6F-BEB2-EFF9E83B971F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="edge_test" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -997,15 +997,15 @@
   <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="7.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="30" customHeight="1">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" ht="30" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1189,18 +1189,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="30" customHeight="1">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -1221,28 +1221,28 @@
         <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" s="1">
         <v>1</v>
@@ -1254,19 +1254,19 @@
         <v>1</v>
       </c>
       <c r="V3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3" s="1">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" ht="30" customHeight="1">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1292,40 +1292,40 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1">
         <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="1">
         <v>0</v>
@@ -1337,13 +1337,13 @@
         <v>0</v>
       </c>
       <c r="S4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" s="1">
         <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" s="1">
         <v>0</v>
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="1">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="30" customHeight="1">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -1411,16 +1411,16 @@
         <v>0</v>
       </c>
       <c r="M5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="1">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="S5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="1">
         <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="1">
         <v>0</v>
@@ -1450,13 +1450,13 @@
         <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="1">
         <v>0</v>
@@ -1465,7 +1465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="30" customHeight="1">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -1488,40 +1488,40 @@
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
       </c>
       <c r="S6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="1">
         <v>0</v>
@@ -1533,31 +1533,31 @@
         <v>0</v>
       </c>
       <c r="W6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="1">
         <v>1</v>
       </c>
       <c r="AC6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="30" customHeight="1">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -1580,16 +1580,16 @@
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="1">
         <v>0</v>
@@ -1640,16 +1640,16 @@
         <v>0</v>
       </c>
       <c r="AB7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7" s="1">
         <v>0</v>
       </c>
       <c r="AD7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="30" customHeight="1">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -1672,16 +1672,16 @@
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1">
         <v>0</v>
@@ -1699,10 +1699,10 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="1">
         <v>0</v>
@@ -1732,16 +1732,16 @@
         <v>0</v>
       </c>
       <c r="AB8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="1">
         <v>0</v>
       </c>
       <c r="AD8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" ht="30" customHeight="1">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -1761,19 +1761,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="AB9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="1">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" ht="30" customHeight="1">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10" s="1">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" ht="30" customHeight="1">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="AB11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11" s="1">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" ht="30" customHeight="1">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -2100,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12" s="1">
         <v>0</v>
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" ht="30" customHeight="1">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -2192,16 +2192,16 @@
         <v>0</v>
       </c>
       <c r="AB13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" ht="30" customHeight="1">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="AC14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" ht="30" customHeight="1">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -2319,10 +2319,10 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
@@ -2379,42 +2379,42 @@
         <v>0</v>
       </c>
       <c r="AC15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD15" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" ht="30" customHeight="1">
       <c r="A16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
@@ -2498,51 +2498,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="7.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="30" customHeight="1">
       <c r="A1" s="2">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="C1" s="2">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E1" s="2">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="F1" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="G1" s="2">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="H1" s="2">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="I1" s="2">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="J1" s="2">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K1" s="2">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="L1" s="2">
-        <v>-3</v>
+        <v>89</v>
       </c>
       <c r="M1" s="2">
         <v>-3</v>
@@ -2599,60 +2599,60 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" ht="30" customHeight="1">
       <c r="A2" s="2">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="G2" s="2">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="H2" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="I2" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="J2" s="2">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="K2" s="2">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="L2" s="2">
-        <v>-3</v>
+        <v>89</v>
       </c>
       <c r="M2" s="2">
         <v>-3</v>
       </c>
       <c r="N2" s="2">
-        <v>-3</v>
+        <v>99</v>
       </c>
       <c r="O2" s="2">
-        <v>-3</v>
+        <v>99</v>
       </c>
       <c r="P2" s="2">
-        <v>-3</v>
+        <v>99</v>
       </c>
       <c r="Q2" s="2">
-        <v>-3</v>
+        <v>99</v>
       </c>
       <c r="R2" s="2">
-        <v>-3</v>
+        <v>99</v>
       </c>
       <c r="S2" s="2">
         <v>-3</v>
@@ -2691,60 +2691,60 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="30" customHeight="1">
       <c r="A3" s="2">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="I3" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="J3" s="2">
-        <v>-3</v>
+        <v>89</v>
       </c>
       <c r="K3" s="2">
-        <v>-3</v>
+        <v>89</v>
       </c>
       <c r="L3" s="2">
-        <v>-3</v>
+        <v>89</v>
       </c>
       <c r="M3" s="2">
-        <v>-3</v>
+        <v>99</v>
       </c>
       <c r="N3" s="2">
-        <v>-3</v>
+        <v>99</v>
       </c>
       <c r="O3" s="2">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="P3" s="2">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="Q3" s="2">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="R3" s="2">
-        <v>-3</v>
+        <v>99</v>
       </c>
       <c r="S3" s="2">
         <v>-3</v>
@@ -2783,66 +2783,66 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" ht="30" customHeight="1">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E4" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F4" s="2">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="2">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="H4" s="2">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="I4" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="J4" s="2">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="K4" s="2">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="L4" s="2">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="M4" s="2">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="N4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O4" s="2">
         <v>-4</v>
       </c>
       <c r="P4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
         <v>1</v>
       </c>
       <c r="R4" s="2">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="S4" s="2">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="T4" s="2">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="U4" s="2">
         <v>-3</v>
@@ -2875,66 +2875,66 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="30" customHeight="1">
       <c r="A5" s="2">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2">
         <v>3</v>
       </c>
       <c r="E5" s="2">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2">
         <v>2</v>
       </c>
       <c r="G5" s="2">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="H5" s="2">
         <v>2</v>
       </c>
       <c r="I5" s="2">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="J5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K5" s="2">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="L5" s="2">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="M5" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O5" s="2">
         <v>1</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q5" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R5" s="2">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="S5" s="2">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="T5" s="2">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="U5" s="2">
         <v>-3</v>
@@ -2967,18 +2967,18 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="30" customHeight="1">
       <c r="A6" s="2">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="B6" s="2">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
       </c>
       <c r="D6" s="2">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -2987,22 +2987,22 @@
         <v>1</v>
       </c>
       <c r="G6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
       </c>
       <c r="I6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6" s="2">
         <v>2</v>
       </c>
       <c r="L6" s="2">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="M6" s="2">
         <v>-4</v>
@@ -3014,915 +3014,915 @@
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="R6" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S6" s="2">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="T6" s="2">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="U6" s="2">
+        <v>-3</v>
+      </c>
+      <c r="V6" s="2">
+        <v>-3</v>
+      </c>
+      <c r="W6" s="2">
+        <v>-3</v>
+      </c>
+      <c r="X6" s="2">
+        <v>-3</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>-3</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="30" customHeight="1">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>3</v>
+      </c>
+      <c r="K7" s="2">
+        <v>-4</v>
+      </c>
+      <c r="L7" s="2">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2">
+        <v>2</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2">
+        <v>3</v>
+      </c>
+      <c r="S7" s="2">
+        <v>99</v>
+      </c>
+      <c r="T7" s="2">
+        <v>-3</v>
+      </c>
+      <c r="U7" s="2">
+        <v>-3</v>
+      </c>
+      <c r="V7" s="2">
+        <v>-3</v>
+      </c>
+      <c r="W7" s="2">
+        <v>-3</v>
+      </c>
+      <c r="X7" s="2">
+        <v>-3</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>-3</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="30" customHeight="1">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>-4</v>
+      </c>
+      <c r="J8" s="2">
+        <v>-4</v>
+      </c>
+      <c r="K8" s="2">
         <v>4</v>
       </c>
-      <c r="V6" s="2">
-        <v>-4</v>
-      </c>
-      <c r="W6" s="2">
-        <v>-3</v>
-      </c>
-      <c r="X6" s="2">
-        <v>-3</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>-3</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>-3</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>-3</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>-3</v>
-      </c>
-      <c r="AC6" s="2">
-        <v>-3</v>
-      </c>
-      <c r="AD6" s="2">
+      <c r="L8" s="2">
+        <v>3</v>
+      </c>
+      <c r="M8" s="2">
+        <v>3</v>
+      </c>
+      <c r="N8" s="2">
+        <v>-4</v>
+      </c>
+      <c r="O8" s="2">
+        <v>2</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2">
+        <v>2</v>
+      </c>
+      <c r="S8" s="2">
+        <v>99</v>
+      </c>
+      <c r="T8" s="2">
+        <v>-3</v>
+      </c>
+      <c r="U8" s="2">
+        <v>-3</v>
+      </c>
+      <c r="V8" s="2">
+        <v>-3</v>
+      </c>
+      <c r="W8" s="2">
+        <v>-3</v>
+      </c>
+      <c r="X8" s="2">
+        <v>-3</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>-3</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AD8" s="2">
         <v>-3</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1</v>
-      </c>
-      <c r="M7" s="2">
-        <v>1</v>
-      </c>
-      <c r="N7" s="2">
-        <v>2</v>
-      </c>
-      <c r="O7" s="2">
-        <v>1</v>
-      </c>
-      <c r="P7" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0</v>
-      </c>
-      <c r="S7" s="2">
-        <v>1</v>
-      </c>
-      <c r="T7" s="2">
-        <v>1</v>
-      </c>
-      <c r="U7" s="2">
-        <v>3</v>
-      </c>
-      <c r="V7" s="2">
-        <v>-4</v>
-      </c>
-      <c r="W7" s="2">
-        <v>3</v>
-      </c>
-      <c r="X7" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>-4</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>3</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="2">
+    <row r="9" spans="1:30" ht="30" customHeight="1">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>3</v>
+      </c>
+      <c r="J9" s="2">
+        <v>3</v>
+      </c>
+      <c r="K9" s="2">
+        <v>-4</v>
+      </c>
+      <c r="L9" s="2">
+        <v>-4</v>
+      </c>
+      <c r="M9" s="2">
+        <v>3</v>
+      </c>
+      <c r="N9" s="2">
+        <v>-4</v>
+      </c>
+      <c r="O9" s="2">
+        <v>3</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>2</v>
+      </c>
+      <c r="R9" s="2">
+        <v>-4</v>
+      </c>
+      <c r="S9" s="2">
+        <v>99</v>
+      </c>
+      <c r="T9" s="2">
+        <v>-3</v>
+      </c>
+      <c r="U9" s="2">
+        <v>-3</v>
+      </c>
+      <c r="V9" s="2">
+        <v>-3</v>
+      </c>
+      <c r="W9" s="2">
+        <v>-3</v>
+      </c>
+      <c r="X9" s="2">
+        <v>-3</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>-3</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AD9" s="2">
         <v>-3</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>-4</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>-4</v>
-      </c>
-      <c r="E8" s="2">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2">
-        <v>-4</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1</v>
-      </c>
-      <c r="K8" s="2">
-        <v>1</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1</v>
-      </c>
-      <c r="M8" s="2">
-        <v>1</v>
-      </c>
-      <c r="N8" s="2">
-        <v>1</v>
-      </c>
-      <c r="O8" s="2">
-        <v>-4</v>
-      </c>
-      <c r="P8" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0</v>
-      </c>
-      <c r="R8" s="2">
-        <v>0</v>
-      </c>
-      <c r="S8" s="2">
-        <v>0</v>
-      </c>
-      <c r="T8" s="2">
-        <v>0</v>
-      </c>
-      <c r="U8" s="2">
-        <v>1</v>
-      </c>
-      <c r="V8" s="2">
-        <v>1</v>
-      </c>
-      <c r="W8" s="2">
-        <v>1</v>
-      </c>
-      <c r="X8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="2">
-        <v>3</v>
-      </c>
-      <c r="AD8" s="2">
+    <row r="10" spans="1:30" ht="30" customHeight="1">
+      <c r="A10" s="2">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-4</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>-4</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>3</v>
+      </c>
+      <c r="L10" s="2">
+        <v>3</v>
+      </c>
+      <c r="M10" s="2">
+        <v>4</v>
+      </c>
+      <c r="N10" s="2">
+        <v>3</v>
+      </c>
+      <c r="O10" s="2">
+        <v>4</v>
+      </c>
+      <c r="P10" s="2">
+        <v>-4</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>3</v>
+      </c>
+      <c r="R10" s="2">
+        <v>3</v>
+      </c>
+      <c r="S10" s="2">
+        <v>99</v>
+      </c>
+      <c r="T10" s="2">
+        <v>99</v>
+      </c>
+      <c r="U10" s="2">
+        <v>99</v>
+      </c>
+      <c r="V10" s="2">
+        <v>99</v>
+      </c>
+      <c r="W10" s="2">
+        <v>99</v>
+      </c>
+      <c r="X10" s="2">
+        <v>99</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>-3</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AD10" s="2">
         <v>-3</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>3</v>
-      </c>
-      <c r="F9" s="2">
-        <v>-4</v>
-      </c>
-      <c r="G9" s="2">
-        <v>2</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2">
-        <v>-4</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1</v>
-      </c>
-      <c r="L9" s="2">
-        <v>-4</v>
-      </c>
-      <c r="M9" s="2">
-        <v>3</v>
-      </c>
-      <c r="N9" s="2">
-        <v>3</v>
-      </c>
-      <c r="O9" s="2">
-        <v>2</v>
-      </c>
-      <c r="P9" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2">
-        <v>0</v>
-      </c>
-      <c r="S9" s="2">
-        <v>0</v>
-      </c>
-      <c r="T9" s="2">
-        <v>1</v>
-      </c>
-      <c r="U9" s="2">
-        <v>1</v>
-      </c>
-      <c r="V9" s="2">
-        <v>1</v>
-      </c>
-      <c r="W9" s="2">
-        <v>0</v>
-      </c>
-      <c r="X9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC9" s="2">
-        <v>-4</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>-4</v>
+    <row r="11" spans="1:30" ht="30" customHeight="1">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>2</v>
+      </c>
+      <c r="L11" s="2">
+        <v>-4</v>
+      </c>
+      <c r="M11" s="2">
+        <v>3</v>
+      </c>
+      <c r="N11" s="2">
+        <v>-4</v>
+      </c>
+      <c r="O11" s="2">
+        <v>-4</v>
+      </c>
+      <c r="P11" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2">
+        <v>-4</v>
+      </c>
+      <c r="S11" s="2">
+        <v>2</v>
+      </c>
+      <c r="T11" s="2">
+        <v>2</v>
+      </c>
+      <c r="U11" s="2">
+        <v>2</v>
+      </c>
+      <c r="V11" s="2">
+        <v>3</v>
+      </c>
+      <c r="W11" s="2">
+        <v>2</v>
+      </c>
+      <c r="X11" s="2">
+        <v>99</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>99</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>-3</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2</v>
-      </c>
-      <c r="F10" s="2">
-        <v>2</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2">
-        <v>2</v>
-      </c>
-      <c r="I10" s="2">
-        <v>2</v>
-      </c>
-      <c r="J10" s="2">
-        <v>2</v>
-      </c>
-      <c r="K10" s="2">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2">
-        <v>2</v>
-      </c>
-      <c r="M10" s="2">
-        <v>-4</v>
-      </c>
-      <c r="N10" s="2">
-        <v>-4</v>
-      </c>
-      <c r="O10" s="2">
-        <v>1</v>
-      </c>
-      <c r="P10" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2">
-        <v>1</v>
-      </c>
-      <c r="S10" s="2">
-        <v>1</v>
-      </c>
-      <c r="T10" s="2">
-        <v>2</v>
-      </c>
-      <c r="U10" s="2">
-        <v>-4</v>
-      </c>
-      <c r="V10" s="2">
-        <v>3</v>
-      </c>
-      <c r="W10" s="2">
-        <v>2</v>
-      </c>
-      <c r="X10" s="2">
-        <v>2</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>-4</v>
-      </c>
-      <c r="AC10" s="2">
-        <v>3</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>2</v>
+    <row r="12" spans="1:30" ht="30" customHeight="1">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>-4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>-4</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2</v>
+      </c>
+      <c r="L12" s="2">
+        <v>-4</v>
+      </c>
+      <c r="M12" s="2">
+        <v>3</v>
+      </c>
+      <c r="N12" s="2">
+        <v>2</v>
+      </c>
+      <c r="O12" s="2">
+        <v>2</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2">
+        <v>1</v>
+      </c>
+      <c r="S12" s="2">
+        <v>1</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2">
+        <v>1</v>
+      </c>
+      <c r="W12" s="2">
+        <v>-4</v>
+      </c>
+      <c r="X12" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>99</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>-3</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>-4</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>-4</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>2</v>
-      </c>
-      <c r="I11" s="2">
-        <v>-4</v>
-      </c>
-      <c r="J11" s="2">
-        <v>3</v>
-      </c>
-      <c r="K11" s="2">
-        <v>1</v>
-      </c>
-      <c r="L11" s="2">
-        <v>2</v>
-      </c>
-      <c r="M11" s="2">
-        <v>2</v>
-      </c>
-      <c r="N11" s="2">
-        <v>2</v>
-      </c>
-      <c r="O11" s="2">
-        <v>1</v>
-      </c>
-      <c r="P11" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>-4</v>
-      </c>
-      <c r="R11" s="2">
-        <v>1</v>
-      </c>
-      <c r="S11" s="2">
-        <v>1</v>
-      </c>
-      <c r="T11" s="2">
-        <v>-4</v>
-      </c>
-      <c r="U11" s="2">
+    <row r="13" spans="1:30" ht="30" customHeight="1">
+      <c r="A13" s="2">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2">
+        <v>-4</v>
+      </c>
+      <c r="C13" s="2">
         <v>4</v>
       </c>
-      <c r="V11" s="2">
-        <v>-4</v>
-      </c>
-      <c r="W11" s="2">
-        <v>-4</v>
-      </c>
-      <c r="X11" s="2">
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>-4</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
+      <c r="V13" s="2">
+        <v>1</v>
+      </c>
+      <c r="W13" s="2">
+        <v>1</v>
+      </c>
+      <c r="X13" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>99</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>2</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="30" customHeight="1">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2">
+        <v>-4</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2">
+        <v>-4</v>
+      </c>
+      <c r="H14" s="2">
+        <v>3</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2">
+        <v>1</v>
+      </c>
+      <c r="S14" s="2">
+        <v>1</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <v>1</v>
+      </c>
+      <c r="V14" s="2">
+        <v>1</v>
+      </c>
+      <c r="W14" s="2">
+        <v>1</v>
+      </c>
+      <c r="X14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>99</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>2</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="30" customHeight="1">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>-4</v>
+      </c>
+      <c r="G15" s="2">
         <v>4</v>
       </c>
-      <c r="Y11" s="2">
-        <v>-4</v>
-      </c>
-      <c r="Z11" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="2">
-        <v>0</v>
+      <c r="H15" s="2">
+        <v>-4</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2">
+        <v>-4</v>
+      </c>
+      <c r="S15" s="2">
+        <v>1</v>
+      </c>
+      <c r="T15" s="2">
+        <v>1</v>
+      </c>
+      <c r="U15" s="2">
+        <v>3</v>
+      </c>
+      <c r="V15" s="2">
+        <v>-4</v>
+      </c>
+      <c r="W15" s="2">
+        <v>3</v>
+      </c>
+      <c r="X15" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>99</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>-3</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>2</v>
-      </c>
-      <c r="I12" s="2">
-        <v>-4</v>
-      </c>
-      <c r="J12" s="2">
-        <v>3</v>
-      </c>
-      <c r="K12" s="2">
-        <v>-4</v>
-      </c>
-      <c r="L12" s="2">
-        <v>3</v>
-      </c>
-      <c r="M12" s="2">
-        <v>3</v>
-      </c>
-      <c r="N12" s="2">
-        <v>2</v>
-      </c>
-      <c r="O12" s="2">
-        <v>1</v>
-      </c>
-      <c r="P12" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>3</v>
-      </c>
-      <c r="R12" s="2">
-        <v>3</v>
-      </c>
-      <c r="S12" s="2">
-        <v>2</v>
-      </c>
-      <c r="T12" s="2">
-        <v>2</v>
-      </c>
-      <c r="U12" s="2">
-        <v>-4</v>
-      </c>
-      <c r="V12" s="2">
-        <v>4</v>
-      </c>
-      <c r="W12" s="2">
-        <v>-4</v>
-      </c>
-      <c r="X12" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y12" s="2">
-        <v>-4</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>-4</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>-4</v>
-      </c>
-      <c r="D13" s="2">
-        <v>-4</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>2</v>
-      </c>
-      <c r="I13" s="2">
-        <v>2</v>
-      </c>
-      <c r="J13" s="2">
-        <v>3</v>
-      </c>
-      <c r="K13" s="2">
-        <v>2</v>
-      </c>
-      <c r="L13" s="2">
-        <v>-4</v>
-      </c>
-      <c r="M13" s="2">
-        <v>-4</v>
-      </c>
-      <c r="N13" s="2">
-        <v>-4</v>
-      </c>
-      <c r="O13" s="2">
-        <v>1</v>
-      </c>
-      <c r="P13" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>-4</v>
-      </c>
-      <c r="R13" s="2">
-        <v>-4</v>
-      </c>
-      <c r="S13" s="2">
-        <v>2</v>
-      </c>
-      <c r="T13" s="2">
-        <v>2</v>
-      </c>
-      <c r="U13" s="2">
-        <v>1</v>
-      </c>
-      <c r="V13" s="2">
-        <v>2</v>
-      </c>
-      <c r="W13" s="2">
-        <v>2</v>
-      </c>
-      <c r="X13" s="2">
-        <v>3</v>
-      </c>
-      <c r="Y13" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z13" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA13" s="2">
-        <v>2</v>
-      </c>
-      <c r="AB13" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2">
-        <v>4</v>
-      </c>
-      <c r="E14" s="2">
-        <v>-4</v>
-      </c>
-      <c r="F14" s="2">
-        <v>2</v>
-      </c>
-      <c r="G14" s="2">
-        <v>2</v>
-      </c>
-      <c r="H14" s="2">
-        <v>2</v>
-      </c>
-      <c r="I14" s="2">
-        <v>-4</v>
-      </c>
-      <c r="J14" s="2">
-        <v>2</v>
-      </c>
-      <c r="K14" s="2">
-        <v>2</v>
-      </c>
-      <c r="L14" s="2">
-        <v>3</v>
-      </c>
-      <c r="M14" s="2">
-        <v>3</v>
-      </c>
-      <c r="N14" s="2">
-        <v>2</v>
-      </c>
-      <c r="O14" s="2">
-        <v>1</v>
-      </c>
-      <c r="P14" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>3</v>
-      </c>
-      <c r="R14" s="2">
-        <v>4</v>
-      </c>
-      <c r="S14" s="2">
-        <v>-4</v>
-      </c>
-      <c r="T14" s="2">
-        <v>1</v>
-      </c>
-      <c r="U14" s="2">
-        <v>1</v>
-      </c>
-      <c r="V14" s="2">
-        <v>1</v>
-      </c>
-      <c r="W14" s="2">
-        <v>2</v>
-      </c>
-      <c r="X14" s="2">
-        <v>-4</v>
-      </c>
-      <c r="Y14" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="2">
-        <v>-4</v>
-      </c>
-      <c r="AB14" s="2">
-        <v>-4</v>
-      </c>
-      <c r="AC14" s="2">
-        <v>2</v>
-      </c>
-      <c r="AD14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2">
-        <v>-4</v>
-      </c>
-      <c r="D15" s="2">
-        <v>3</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2">
-        <v>-3</v>
-      </c>
-      <c r="G15" s="2">
-        <v>-3</v>
-      </c>
-      <c r="H15" s="2">
-        <v>-3</v>
-      </c>
-      <c r="I15" s="2">
-        <v>3</v>
-      </c>
-      <c r="J15" s="2">
-        <v>3</v>
-      </c>
-      <c r="K15" s="2">
-        <v>-4</v>
-      </c>
-      <c r="L15" s="2">
-        <v>1</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2">
-        <v>0</v>
-      </c>
-      <c r="P15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2">
-        <v>-4</v>
-      </c>
-      <c r="S15" s="2">
-        <v>2</v>
-      </c>
-      <c r="T15" s="2">
-        <v>1</v>
-      </c>
-      <c r="U15" s="2">
-        <v>1</v>
-      </c>
-      <c r="V15" s="2">
-        <v>-4</v>
-      </c>
-      <c r="W15" s="2">
-        <v>3</v>
-      </c>
-      <c r="X15" s="2">
-        <v>2</v>
-      </c>
-      <c r="Y15" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="2">
-        <v>3</v>
-      </c>
-      <c r="AB15" s="2">
-        <v>-4</v>
-      </c>
-      <c r="AC15" s="2">
-        <v>3</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" ht="30" customHeight="1">
       <c r="A16" s="2">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B16" s="2">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="C16" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D16" s="2">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F16" s="2">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="G16" s="2">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="H16" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="I16" s="2">
         <v>2</v>
       </c>
       <c r="J16" s="2">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="K16" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
@@ -3946,37 +3946,37 @@
         <v>1</v>
       </c>
       <c r="T16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="2">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="V16" s="2">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="W16" s="2">
-        <v>-4</v>
+        <v>99</v>
       </c>
       <c r="X16" s="2">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="Y16" s="2">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="Z16" s="2">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AA16" s="2">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="AB16" s="2">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="AC16" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD16" s="2">
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
   </sheetData>
@@ -4013,18 +4013,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F708D3C-D4F8-4038-9D56-46376F4D6295}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:AD16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="7.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="30" customHeight="1">
       <c r="A1" s="2">
         <v>-3</v>
       </c>
@@ -4041,19 +4041,82 @@
         <v>-3</v>
       </c>
       <c r="F1" s="2">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="G1" s="2">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="H1" s="2">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="I1" s="2">
-        <v>0</v>
+        <v>-3</v>
+      </c>
+      <c r="J1" s="2">
+        <v>-3</v>
+      </c>
+      <c r="K1" s="2">
+        <v>-3</v>
+      </c>
+      <c r="L1" s="2">
+        <v>-3</v>
+      </c>
+      <c r="M1" s="2">
+        <v>-3</v>
+      </c>
+      <c r="N1" s="2">
+        <v>-3</v>
+      </c>
+      <c r="O1" s="2">
+        <v>-3</v>
+      </c>
+      <c r="P1" s="2">
+        <v>-3</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>-3</v>
+      </c>
+      <c r="R1" s="2">
+        <v>-3</v>
+      </c>
+      <c r="S1" s="2">
+        <v>-3</v>
+      </c>
+      <c r="T1" s="2">
+        <v>-3</v>
+      </c>
+      <c r="U1" s="2">
+        <v>-3</v>
+      </c>
+      <c r="V1" s="2">
+        <v>-3</v>
+      </c>
+      <c r="W1" s="2">
+        <v>-3</v>
+      </c>
+      <c r="X1" s="2">
+        <v>-3</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>-3</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>-3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" ht="30" customHeight="1">
       <c r="A2" s="2">
         <v>-3</v>
       </c>
@@ -4070,19 +4133,82 @@
         <v>-3</v>
       </c>
       <c r="F2" s="2">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="G2" s="2">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="H2" s="2">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>-3</v>
+      </c>
+      <c r="J2" s="2">
+        <v>-3</v>
+      </c>
+      <c r="K2" s="2">
+        <v>-3</v>
+      </c>
+      <c r="L2" s="2">
+        <v>-3</v>
+      </c>
+      <c r="M2" s="2">
+        <v>-3</v>
+      </c>
+      <c r="N2" s="2">
+        <v>-3</v>
+      </c>
+      <c r="O2" s="2">
+        <v>-3</v>
+      </c>
+      <c r="P2" s="2">
+        <v>-3</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>-3</v>
+      </c>
+      <c r="R2" s="2">
+        <v>-3</v>
+      </c>
+      <c r="S2" s="2">
+        <v>-3</v>
+      </c>
+      <c r="T2" s="2">
+        <v>-3</v>
+      </c>
+      <c r="U2" s="2">
+        <v>-3</v>
+      </c>
+      <c r="V2" s="2">
+        <v>-3</v>
+      </c>
+      <c r="W2" s="2">
+        <v>-3</v>
+      </c>
+      <c r="X2" s="2">
+        <v>-3</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>-3</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>-3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="30" customHeight="1">
       <c r="A3" s="2">
         <v>-3</v>
       </c>
@@ -4105,13 +4231,76 @@
         <v>-3</v>
       </c>
       <c r="H3" s="2">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>-3</v>
+      </c>
+      <c r="J3" s="2">
+        <v>-3</v>
+      </c>
+      <c r="K3" s="2">
+        <v>-3</v>
+      </c>
+      <c r="L3" s="2">
+        <v>-3</v>
+      </c>
+      <c r="M3" s="2">
+        <v>-3</v>
+      </c>
+      <c r="N3" s="2">
+        <v>-3</v>
+      </c>
+      <c r="O3" s="2">
+        <v>-3</v>
+      </c>
+      <c r="P3" s="2">
+        <v>-3</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>-3</v>
+      </c>
+      <c r="R3" s="2">
+        <v>-3</v>
+      </c>
+      <c r="S3" s="2">
+        <v>-3</v>
+      </c>
+      <c r="T3" s="2">
+        <v>-3</v>
+      </c>
+      <c r="U3" s="2">
+        <v>-3</v>
+      </c>
+      <c r="V3" s="2">
+        <v>-3</v>
+      </c>
+      <c r="W3" s="2">
+        <v>-3</v>
+      </c>
+      <c r="X3" s="2">
+        <v>-3</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>-3</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>-3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" ht="30" customHeight="1">
       <c r="A4" s="2">
         <v>-3</v>
       </c>
@@ -4131,16 +4320,79 @@
         <v>-3</v>
       </c>
       <c r="G4" s="2">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="H4" s="2">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>-3</v>
+      </c>
+      <c r="J4" s="2">
+        <v>-3</v>
+      </c>
+      <c r="K4" s="2">
+        <v>-3</v>
+      </c>
+      <c r="L4" s="2">
+        <v>-3</v>
+      </c>
+      <c r="M4" s="2">
+        <v>-3</v>
+      </c>
+      <c r="N4" s="2">
+        <v>-3</v>
+      </c>
+      <c r="O4" s="2">
+        <v>-3</v>
+      </c>
+      <c r="P4" s="2">
+        <v>-3</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>-3</v>
+      </c>
+      <c r="R4" s="2">
+        <v>-3</v>
+      </c>
+      <c r="S4" s="2">
+        <v>-3</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1</v>
+      </c>
+      <c r="U4" s="2">
+        <v>2</v>
+      </c>
+      <c r="V4" s="2">
+        <v>-4</v>
+      </c>
+      <c r="W4" s="2">
+        <v>3</v>
+      </c>
+      <c r="X4" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>-3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="30" customHeight="1">
       <c r="A5" s="2">
         <v>-3</v>
       </c>
@@ -4151,25 +4403,88 @@
         <v>-3</v>
       </c>
       <c r="D5" s="2">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="G5" s="2">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="H5" s="2">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>-3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>-3</v>
+      </c>
+      <c r="K5" s="2">
+        <v>-3</v>
+      </c>
+      <c r="L5" s="2">
+        <v>-3</v>
+      </c>
+      <c r="M5" s="2">
+        <v>-3</v>
+      </c>
+      <c r="N5" s="2">
+        <v>2</v>
+      </c>
+      <c r="O5" s="2">
+        <v>-3</v>
+      </c>
+      <c r="P5" s="2">
+        <v>-3</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>-3</v>
+      </c>
+      <c r="R5" s="2">
+        <v>-3</v>
+      </c>
+      <c r="S5" s="2">
+        <v>-3</v>
+      </c>
+      <c r="T5" s="2">
+        <v>1</v>
+      </c>
+      <c r="U5" s="2">
+        <v>1</v>
+      </c>
+      <c r="V5" s="2">
+        <v>1</v>
+      </c>
+      <c r="W5" s="2">
+        <v>1</v>
+      </c>
+      <c r="X5" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>-4</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="30" customHeight="1">
       <c r="A6" s="2">
         <v>-3</v>
       </c>
@@ -4177,28 +4492,91 @@
         <v>-3</v>
       </c>
       <c r="C6" s="2">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="D6" s="2">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G6" s="2">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>-3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>-3</v>
+      </c>
+      <c r="K6" s="2">
+        <v>-3</v>
+      </c>
+      <c r="L6" s="2">
+        <v>-3</v>
+      </c>
+      <c r="M6" s="2">
+        <v>-3</v>
+      </c>
+      <c r="N6" s="2">
+        <v>-3</v>
+      </c>
+      <c r="O6" s="2">
+        <v>2</v>
+      </c>
+      <c r="P6" s="2">
+        <v>-3</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>-3</v>
+      </c>
+      <c r="R6" s="2">
+        <v>-3</v>
+      </c>
+      <c r="S6" s="2">
+        <v>-3</v>
+      </c>
+      <c r="T6" s="2">
+        <v>3</v>
+      </c>
+      <c r="U6" s="2">
+        <v>2</v>
+      </c>
+      <c r="V6" s="2">
+        <v>1</v>
+      </c>
+      <c r="W6" s="2">
+        <v>1</v>
+      </c>
+      <c r="X6" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>-4</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>-4</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>-3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="30" customHeight="1">
       <c r="A7" s="2">
         <v>-3</v>
       </c>
@@ -4206,83 +4584,916 @@
         <v>-3</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G7" s="2">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>-3</v>
+      </c>
+      <c r="K7" s="2">
+        <v>-3</v>
+      </c>
+      <c r="L7" s="2">
+        <v>2</v>
+      </c>
+      <c r="M7" s="2">
+        <v>2</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>-3</v>
+      </c>
+      <c r="R7" s="2">
+        <v>-3</v>
+      </c>
+      <c r="S7" s="2">
+        <v>-4</v>
+      </c>
+      <c r="T7" s="2">
+        <v>-4</v>
+      </c>
+      <c r="U7" s="2">
+        <v>2</v>
+      </c>
+      <c r="V7" s="2">
+        <v>-4</v>
+      </c>
+      <c r="W7" s="2">
+        <v>1</v>
+      </c>
+      <c r="X7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>-3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="30" customHeight="1">
       <c r="A8" s="2">
         <v>-3</v>
       </c>
       <c r="B8" s="2">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="D8" s="2">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E8" s="2">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F8" s="2">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G8" s="2">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="H8" s="2">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>-3</v>
+      </c>
+      <c r="J8" s="2">
+        <v>-3</v>
+      </c>
+      <c r="K8" s="2">
+        <v>-3</v>
+      </c>
+      <c r="L8" s="2">
+        <v>-4</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>-3</v>
+      </c>
+      <c r="R8" s="2">
+        <v>-3</v>
+      </c>
+      <c r="S8" s="2">
+        <v>-4</v>
+      </c>
+      <c r="T8" s="2">
+        <v>5</v>
+      </c>
+      <c r="U8" s="2">
+        <v>3</v>
+      </c>
+      <c r="V8" s="2">
+        <v>1</v>
+      </c>
+      <c r="W8" s="2">
+        <v>1</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>-3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" ht="30" customHeight="1">
       <c r="A9" s="2">
         <v>-3</v>
       </c>
       <c r="B9" s="2">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F9" s="2">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G9" s="2">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="H9" s="2">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>-3</v>
+      </c>
+      <c r="J9" s="2">
+        <v>-3</v>
+      </c>
+      <c r="K9" s="2">
+        <v>-3</v>
+      </c>
+      <c r="L9" s="2">
+        <v>3</v>
+      </c>
+      <c r="M9" s="2">
+        <v>2</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2">
+        <v>-4</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>-4</v>
+      </c>
+      <c r="R9" s="2">
+        <v>5</v>
+      </c>
+      <c r="S9" s="2">
+        <v>-4</v>
+      </c>
+      <c r="T9" s="2">
+        <v>-4</v>
+      </c>
+      <c r="U9" s="2">
+        <v>2</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>-4</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="30" customHeight="1">
+      <c r="A10" s="2">
+        <v>-3</v>
+      </c>
+      <c r="B10" s="2">
+        <v>-3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>-3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-3</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-3</v>
+      </c>
+      <c r="G10" s="2">
+        <v>-3</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2</v>
+      </c>
+      <c r="I10" s="2">
+        <v>-4</v>
+      </c>
+      <c r="J10" s="2">
+        <v>3</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2</v>
+      </c>
+      <c r="L10" s="2">
+        <v>-4</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1</v>
+      </c>
+      <c r="P10" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2">
+        <v>3</v>
+      </c>
+      <c r="S10" s="2">
+        <v>-4</v>
+      </c>
+      <c r="T10" s="2">
+        <v>-4</v>
+      </c>
+      <c r="U10" s="2">
+        <v>2</v>
+      </c>
+      <c r="V10" s="2">
+        <v>1</v>
+      </c>
+      <c r="W10" s="2">
+        <v>1</v>
+      </c>
+      <c r="X10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="30" customHeight="1">
+      <c r="A11" s="2">
+        <v>-3</v>
+      </c>
+      <c r="B11" s="2">
+        <v>-3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>-3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>-3</v>
+      </c>
+      <c r="G11" s="2">
+        <v>-3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>1</v>
+      </c>
+      <c r="S11" s="2">
+        <v>2</v>
+      </c>
+      <c r="T11" s="2">
+        <v>2</v>
+      </c>
+      <c r="U11" s="2">
+        <v>1</v>
+      </c>
+      <c r="V11" s="2">
+        <v>1</v>
+      </c>
+      <c r="W11" s="2">
+        <v>-4</v>
+      </c>
+      <c r="X11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>-4</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="30" customHeight="1">
+      <c r="A12" s="2">
+        <v>-3</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>-3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-3</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-3</v>
+      </c>
+      <c r="G12" s="2">
+        <v>-3</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>1</v>
+      </c>
+      <c r="T12" s="2">
+        <v>2</v>
+      </c>
+      <c r="U12" s="2">
+        <v>2</v>
+      </c>
+      <c r="V12" s="2">
+        <v>2</v>
+      </c>
+      <c r="W12" s="2">
+        <v>2</v>
+      </c>
+      <c r="X12" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="30" customHeight="1">
+      <c r="A13" s="2">
+        <v>-3</v>
+      </c>
+      <c r="B13" s="2">
+        <v>-3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>-3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>-3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-3</v>
+      </c>
+      <c r="F13" s="2">
+        <v>-3</v>
+      </c>
+      <c r="G13" s="2">
+        <v>-3</v>
+      </c>
+      <c r="H13" s="2">
+        <v>-4</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
+        <v>2</v>
+      </c>
+      <c r="M13" s="2">
+        <v>-4</v>
+      </c>
+      <c r="N13" s="2">
+        <v>2</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <v>1</v>
+      </c>
+      <c r="T13" s="2">
+        <v>-4</v>
+      </c>
+      <c r="U13" s="2">
+        <v>-4</v>
+      </c>
+      <c r="V13" s="2">
+        <v>1</v>
+      </c>
+      <c r="W13" s="2">
+        <v>1</v>
+      </c>
+      <c r="X13" s="2">
+        <v>-4</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="30" customHeight="1">
+      <c r="A14" s="2">
+        <v>-3</v>
+      </c>
+      <c r="B14" s="2">
+        <v>-3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>-3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>-3</v>
+      </c>
+      <c r="E14" s="2">
+        <v>-3</v>
+      </c>
+      <c r="F14" s="2">
+        <v>-3</v>
+      </c>
+      <c r="G14" s="2">
+        <v>-3</v>
+      </c>
+      <c r="H14" s="2">
+        <v>4</v>
+      </c>
+      <c r="I14" s="2">
+        <v>3</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
+      <c r="K14" s="2">
+        <v>-4</v>
+      </c>
+      <c r="L14" s="2">
+        <v>2</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2">
+        <v>2</v>
+      </c>
+      <c r="O14" s="2">
+        <v>-4</v>
+      </c>
+      <c r="P14" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2">
+        <v>2</v>
+      </c>
+      <c r="S14" s="2">
+        <v>3</v>
+      </c>
+      <c r="T14" s="2">
+        <v>3</v>
+      </c>
+      <c r="U14" s="2">
+        <v>4</v>
+      </c>
+      <c r="V14" s="2">
+        <v>3</v>
+      </c>
+      <c r="W14" s="2">
+        <v>3</v>
+      </c>
+      <c r="X14" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>-4</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="30" customHeight="1">
+      <c r="A15" s="2">
+        <v>-3</v>
+      </c>
+      <c r="B15" s="2">
+        <v>-3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>-3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>-3</v>
+      </c>
+      <c r="E15" s="2">
+        <v>-3</v>
+      </c>
+      <c r="F15" s="2">
+        <v>-3</v>
+      </c>
+      <c r="G15" s="2">
+        <v>-3</v>
+      </c>
+      <c r="H15" s="2">
+        <v>-3</v>
+      </c>
+      <c r="I15" s="2">
+        <v>-3</v>
+      </c>
+      <c r="J15" s="2">
+        <v>-3</v>
+      </c>
+      <c r="K15" s="2">
+        <v>2</v>
+      </c>
+      <c r="L15" s="2">
+        <v>2</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2">
+        <v>2</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1</v>
+      </c>
+      <c r="P15" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>-4</v>
+      </c>
+      <c r="R15" s="2">
+        <v>-4</v>
+      </c>
+      <c r="S15" s="2">
+        <v>2</v>
+      </c>
+      <c r="T15" s="2">
+        <v>-4</v>
+      </c>
+      <c r="U15" s="2">
+        <v>3</v>
+      </c>
+      <c r="V15" s="2">
+        <v>-4</v>
+      </c>
+      <c r="W15" s="2">
+        <v>-4</v>
+      </c>
+      <c r="X15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>-4</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="30" customHeight="1">
+      <c r="A16" s="2">
+        <v>-3</v>
+      </c>
+      <c r="B16" s="2">
+        <v>-3</v>
+      </c>
+      <c r="C16" s="2">
+        <v>-3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-3</v>
+      </c>
+      <c r="E16" s="2">
+        <v>-3</v>
+      </c>
+      <c r="F16" s="2">
+        <v>-3</v>
+      </c>
+      <c r="G16" s="2">
+        <v>-3</v>
+      </c>
+      <c r="H16" s="2">
+        <v>-3</v>
+      </c>
+      <c r="I16" s="2">
+        <v>-3</v>
+      </c>
+      <c r="J16" s="2">
+        <v>-3</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2">
+        <v>-4</v>
+      </c>
+      <c r="N16" s="2">
+        <v>1</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2">
+        <v>2</v>
+      </c>
+      <c r="S16" s="2">
+        <v>2</v>
+      </c>
+      <c r="T16" s="2">
+        <v>2</v>
+      </c>
+      <c r="U16" s="2">
+        <v>-4</v>
+      </c>
+      <c r="V16" s="2">
+        <v>3</v>
+      </c>
+      <c r="W16" s="2">
+        <v>2</v>
+      </c>
+      <c r="X16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>-4</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>-3</v>
       </c>
     </row>
   </sheetData>
@@ -4319,7 +5530,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
